--- a/Code/Results/Cases/Case_3_130/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_130/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019449897121517</v>
+        <v>1.072208172810626</v>
       </c>
       <c r="D2">
-        <v>1.035906857333641</v>
+        <v>1.072030756521074</v>
       </c>
       <c r="E2">
-        <v>1.031736789816515</v>
+        <v>1.075943553138918</v>
       </c>
       <c r="F2">
-        <v>1.041094870244935</v>
+        <v>1.085447045681993</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04871461820126</v>
+        <v>1.045430307543311</v>
       </c>
       <c r="J2">
-        <v>1.041064029889569</v>
+        <v>1.077128879515603</v>
       </c>
       <c r="K2">
-        <v>1.046887630120376</v>
+        <v>1.074726353444159</v>
       </c>
       <c r="L2">
-        <v>1.042771001907601</v>
+        <v>1.078628789076833</v>
       </c>
       <c r="M2">
-        <v>1.052009904413553</v>
+        <v>1.088107452401265</v>
       </c>
       <c r="N2">
-        <v>1.042542460223725</v>
+        <v>1.078658526072924</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.028019158946817</v>
+        <v>1.073897414423404</v>
       </c>
       <c r="D3">
-        <v>1.042637881327152</v>
+        <v>1.073362654876628</v>
       </c>
       <c r="E3">
-        <v>1.039083594036765</v>
+        <v>1.077433414607287</v>
       </c>
       <c r="F3">
-        <v>1.048653442444442</v>
+        <v>1.086982225004268</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051151448528754</v>
+        <v>1.045811968428813</v>
       </c>
       <c r="J3">
-        <v>1.047774081254365</v>
+        <v>1.078472878139405</v>
       </c>
       <c r="K3">
-        <v>1.052752789606421</v>
+        <v>1.075873647800539</v>
       </c>
       <c r="L3">
-        <v>1.049239671559258</v>
+        <v>1.079934415942693</v>
       </c>
       <c r="M3">
-        <v>1.05869945691887</v>
+        <v>1.089460104564123</v>
       </c>
       <c r="N3">
-        <v>1.049262040631113</v>
+        <v>1.080004433328931</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.033385535339326</v>
+        <v>1.07498858742434</v>
       </c>
       <c r="D4">
-        <v>1.046855070950875</v>
+        <v>1.07422256934854</v>
       </c>
       <c r="E4">
-        <v>1.043690290195128</v>
+        <v>1.078395897602642</v>
       </c>
       <c r="F4">
-        <v>1.053393583761389</v>
+        <v>1.087974049717594</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052663892693046</v>
+        <v>1.046056705516309</v>
       </c>
       <c r="J4">
-        <v>1.05197214436586</v>
+        <v>1.079340287944792</v>
       </c>
       <c r="K4">
-        <v>1.056419065203142</v>
+        <v>1.076613566823521</v>
       </c>
       <c r="L4">
-        <v>1.053288527032017</v>
+        <v>1.080777172615589</v>
       </c>
       <c r="M4">
-        <v>1.06288762971477</v>
+        <v>1.09033331298549</v>
       </c>
       <c r="N4">
-        <v>1.053466065473751</v>
+        <v>1.080873074955736</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.035601472482303</v>
+        <v>1.075446877589647</v>
       </c>
       <c r="D5">
-        <v>1.048596816026978</v>
+        <v>1.074583627166517</v>
       </c>
       <c r="E5">
-        <v>1.045593826288322</v>
+        <v>1.078800161393003</v>
       </c>
       <c r="F5">
-        <v>1.055352410614384</v>
+        <v>1.088390653222823</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053285090471594</v>
+        <v>1.04615906358958</v>
       </c>
       <c r="J5">
-        <v>1.053704607389091</v>
+        <v>1.079704417546836</v>
       </c>
       <c r="K5">
-        <v>1.057931271106584</v>
+        <v>1.07692404775108</v>
       </c>
       <c r="L5">
-        <v>1.054959832759728</v>
+        <v>1.081130979719386</v>
       </c>
       <c r="M5">
-        <v>1.064616687730443</v>
+        <v>1.090699927685366</v>
       </c>
       <c r="N5">
-        <v>1.055200988793192</v>
+        <v>1.081237721663581</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.035971259730358</v>
+        <v>1.075523801100411</v>
       </c>
       <c r="D6">
-        <v>1.048887488262116</v>
+        <v>1.074644224184347</v>
       </c>
       <c r="E6">
-        <v>1.045911554178051</v>
+        <v>1.078868017964874</v>
       </c>
       <c r="F6">
-        <v>1.055679375915842</v>
+        <v>1.088460581952467</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053388555295794</v>
+        <v>1.046176218997199</v>
       </c>
       <c r="J6">
-        <v>1.053993650736988</v>
+        <v>1.07976552570611</v>
       </c>
       <c r="K6">
-        <v>1.058183518987349</v>
+        <v>1.076976145001797</v>
       </c>
       <c r="L6">
-        <v>1.055238696790588</v>
+        <v>1.081190357116916</v>
       </c>
       <c r="M6">
-        <v>1.064905202030756</v>
+        <v>1.090761455871181</v>
       </c>
       <c r="N6">
-        <v>1.055490442615797</v>
+        <v>1.08129891660345</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.0334152989997</v>
+        <v>1.074994712829632</v>
       </c>
       <c r="D7">
-        <v>1.046878464253872</v>
+        <v>1.07422739557909</v>
       </c>
       <c r="E7">
-        <v>1.043715852819474</v>
+        <v>1.078401300813604</v>
       </c>
       <c r="F7">
-        <v>1.053419888304036</v>
+        <v>1.087979617794718</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052672249701191</v>
+        <v>1.046058075306129</v>
       </c>
       <c r="J7">
-        <v>1.051995418408995</v>
+        <v>1.079345155531027</v>
       </c>
       <c r="K7">
-        <v>1.056439383498519</v>
+        <v>1.076617717757854</v>
       </c>
       <c r="L7">
-        <v>1.053310977848319</v>
+        <v>1.08078190210894</v>
       </c>
       <c r="M7">
-        <v>1.062910855369616</v>
+        <v>1.090338213592071</v>
       </c>
       <c r="N7">
-        <v>1.053489372568696</v>
+        <v>1.080877949454501</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.022384556590119</v>
+        <v>1.072779455644645</v>
       </c>
       <c r="D8">
-        <v>1.038211481719321</v>
+        <v>1.072481278525498</v>
       </c>
       <c r="E8">
-        <v>1.034251488413804</v>
+        <v>1.076447386431177</v>
       </c>
       <c r="F8">
-        <v>1.04368190903065</v>
+        <v>1.085966190704515</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049551967770997</v>
+        <v>1.04555975361005</v>
       </c>
       <c r="J8">
-        <v>1.043362773585998</v>
+        <v>1.077583560567763</v>
       </c>
       <c r="K8">
-        <v>1.04889758331752</v>
+        <v>1.075114600069533</v>
       </c>
       <c r="L8">
-        <v>1.044986659013224</v>
+        <v>1.079070465510181</v>
       </c>
       <c r="M8">
-        <v>1.054300986837349</v>
+        <v>1.088565016514029</v>
       </c>
       <c r="N8">
-        <v>1.044844468399873</v>
+        <v>1.079113852824332</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00144582621486</v>
+        <v>1.068861004459297</v>
       </c>
       <c r="D9">
-        <v>1.021782987160172</v>
+        <v>1.069389400120192</v>
       </c>
       <c r="E9">
-        <v>1.016340083820605</v>
+        <v>1.072992023924897</v>
       </c>
       <c r="F9">
-        <v>1.025258510241293</v>
+        <v>1.082406091072583</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043521879617893</v>
+        <v>1.044664495167863</v>
       </c>
       <c r="J9">
-        <v>1.026947631735945</v>
+        <v>1.074461812029879</v>
       </c>
       <c r="K9">
-        <v>1.03453226706932</v>
+        <v>1.072446770963086</v>
       </c>
       <c r="L9">
-        <v>1.029173502886704</v>
+        <v>1.076038470150415</v>
       </c>
       <c r="M9">
-        <v>1.037954659584332</v>
+        <v>1.085424363913544</v>
       </c>
       <c r="N9">
-        <v>1.02840601516555</v>
+        <v>1.075987671045454</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9862618071295883</v>
+        <v>1.066238005587018</v>
       </c>
       <c r="D10">
-        <v>1.009897075646166</v>
+        <v>1.06731757653338</v>
       </c>
       <c r="E10">
-        <v>1.003398210720606</v>
+        <v>1.07067961924238</v>
       </c>
       <c r="F10">
-        <v>1.011951416503548</v>
+        <v>1.080023941424892</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039081901243288</v>
+        <v>1.04405594622136</v>
       </c>
       <c r="J10">
-        <v>1.015031300708238</v>
+        <v>1.072368280377774</v>
       </c>
       <c r="K10">
-        <v>1.024089905390801</v>
+        <v>1.0706548901889</v>
       </c>
       <c r="L10">
-        <v>1.017706379297029</v>
+        <v>1.074005721658344</v>
       </c>
       <c r="M10">
-        <v>1.026108185983364</v>
+        <v>1.083319285692774</v>
       </c>
       <c r="N10">
-        <v>1.016472761580961</v>
+        <v>1.073891166338272</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9793380733483636</v>
+        <v>1.065099526407485</v>
       </c>
       <c r="D11">
-        <v>1.004486821878536</v>
+        <v>1.066417837230679</v>
       </c>
       <c r="E11">
-        <v>0.9975106517852591</v>
+        <v>1.069676105221957</v>
       </c>
       <c r="F11">
-        <v>1.005899031482827</v>
+        <v>1.078990243979441</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037042937580746</v>
+        <v>1.043789620291422</v>
       </c>
       <c r="J11">
-        <v>1.009596411027722</v>
+        <v>1.071458704713226</v>
       </c>
       <c r="K11">
-        <v>1.019324616469301</v>
+        <v>1.069875722366402</v>
       </c>
       <c r="L11">
-        <v>1.012479666755069</v>
+        <v>1.073122696825941</v>
       </c>
       <c r="M11">
-        <v>1.020710551604497</v>
+        <v>1.08240496526894</v>
       </c>
       <c r="N11">
-        <v>1.011030153733709</v>
+        <v>1.072980298971951</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9767079312405341</v>
+        <v>1.064676225033307</v>
       </c>
       <c r="D12">
-        <v>1.002433353104153</v>
+        <v>1.06608322994097</v>
       </c>
       <c r="E12">
-        <v>0.9952764589256611</v>
+        <v>1.069303010092781</v>
       </c>
       <c r="F12">
-        <v>1.00360250934668</v>
+        <v>1.078605939700836</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036266384030943</v>
+        <v>1.043690267758681</v>
       </c>
       <c r="J12">
-        <v>1.007531845458489</v>
+        <v>1.071120377231516</v>
       </c>
       <c r="K12">
-        <v>1.017514081926015</v>
+        <v>1.069585804301572</v>
       </c>
       <c r="L12">
-        <v>1.010494717514509</v>
+        <v>1.072794266801465</v>
       </c>
       <c r="M12">
-        <v>1.018661014892718</v>
+        <v>1.082064914069168</v>
       </c>
       <c r="N12">
-        <v>1.008962656244558</v>
+        <v>1.072641491026409</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.977274852197091</v>
+        <v>1.064767043814888</v>
       </c>
       <c r="D13">
-        <v>1.00287588957455</v>
+        <v>1.066155022778515</v>
       </c>
       <c r="E13">
-        <v>0.9957579240581511</v>
+        <v>1.06938305606439</v>
       </c>
       <c r="F13">
-        <v>1.004097396138812</v>
+        <v>1.078688389970978</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036433856070242</v>
+        <v>1.043711598603864</v>
       </c>
       <c r="J13">
-        <v>1.007976854328587</v>
+        <v>1.071192971088475</v>
       </c>
       <c r="K13">
-        <v>1.017904349219135</v>
+        <v>1.069648015500832</v>
       </c>
       <c r="L13">
-        <v>1.010922540545157</v>
+        <v>1.072864736014272</v>
       </c>
       <c r="M13">
-        <v>1.019102743651285</v>
+        <v>1.082137875912119</v>
       </c>
       <c r="N13">
-        <v>1.009408297078295</v>
+        <v>1.072714187974972</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9791218931872816</v>
+        <v>1.065064544819603</v>
       </c>
       <c r="D14">
-        <v>1.004318003244811</v>
+        <v>1.066390186785672</v>
       </c>
       <c r="E14">
-        <v>0.997326967101854</v>
+        <v>1.069645272169161</v>
       </c>
       <c r="F14">
-        <v>1.005710217833719</v>
+        <v>1.078958484328586</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036979149703224</v>
+        <v>1.043781416515792</v>
       </c>
       <c r="J14">
-        <v>1.009426716266127</v>
+        <v>1.071430748118574</v>
       </c>
       <c r="K14">
-        <v>1.019175807821034</v>
+        <v>1.069851767909506</v>
       </c>
       <c r="L14">
-        <v>1.012316504876643</v>
+        <v>1.073095557635009</v>
       </c>
       <c r="M14">
-        <v>1.020542073956696</v>
+        <v>1.082376865399553</v>
       </c>
       <c r="N14">
-        <v>1.010860217986087</v>
+        <v>1.072952302675727</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9802519893929471</v>
+        <v>1.065247789015466</v>
       </c>
       <c r="D15">
-        <v>1.005200586524733</v>
+        <v>1.06653502526466</v>
       </c>
       <c r="E15">
-        <v>0.9982872874000733</v>
+        <v>1.069806786083399</v>
       </c>
       <c r="F15">
-        <v>1.006697361825763</v>
+        <v>1.079124852596335</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037312524679496</v>
+        <v>1.043824376918416</v>
       </c>
       <c r="J15">
-        <v>1.010313808268194</v>
+        <v>1.071577187723506</v>
       </c>
       <c r="K15">
-        <v>1.019953703062983</v>
+        <v>1.069977239911331</v>
       </c>
       <c r="L15">
-        <v>1.013169467728998</v>
+        <v>1.073237716476047</v>
       </c>
       <c r="M15">
-        <v>1.021422839394214</v>
+        <v>1.082524057178846</v>
       </c>
       <c r="N15">
-        <v>1.011748569760548</v>
+        <v>1.073098950241694</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.98671347503828</v>
+        <v>1.066313504605817</v>
       </c>
       <c r="D16">
-        <v>1.010250234177446</v>
+        <v>1.0673772331298</v>
       </c>
       <c r="E16">
-        <v>1.003782589558287</v>
+        <v>1.070746171322119</v>
       </c>
       <c r="F16">
-        <v>1.012346585164744</v>
+        <v>1.080092497014</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039214628342818</v>
+        <v>1.044073561677926</v>
       </c>
       <c r="J16">
-        <v>1.015385834534454</v>
+        <v>1.072428580502587</v>
       </c>
       <c r="K16">
-        <v>1.024400709810594</v>
+        <v>1.070706531302491</v>
       </c>
       <c r="L16">
-        <v>1.018047404376521</v>
+        <v>1.074064264611757</v>
       </c>
       <c r="M16">
-        <v>1.026460406129372</v>
+        <v>1.08337990611691</v>
       </c>
       <c r="N16">
-        <v>1.016827798885876</v>
+        <v>1.073951552096178</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9906692639545676</v>
+        <v>1.066981266674723</v>
       </c>
       <c r="D17">
-        <v>1.013344368764248</v>
+        <v>1.067904818119008</v>
       </c>
       <c r="E17">
-        <v>1.007150624955878</v>
+        <v>1.071334818982005</v>
       </c>
       <c r="F17">
-        <v>1.015809314759293</v>
+        <v>1.08069887523212</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040375476319928</v>
+        <v>1.044229111168384</v>
       </c>
       <c r="J17">
-        <v>1.018490791785653</v>
+        <v>1.072961809393014</v>
       </c>
       <c r="K17">
-        <v>1.027122399580762</v>
+        <v>1.071163114348186</v>
       </c>
       <c r="L17">
-        <v>1.021034428774484</v>
+        <v>1.074581971426811</v>
       </c>
       <c r="M17">
-        <v>1.029545713490186</v>
+        <v>1.08391599877735</v>
       </c>
       <c r="N17">
-        <v>1.019937165532515</v>
+        <v>1.074485538232792</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9929433861547334</v>
+        <v>1.067370501066232</v>
       </c>
       <c r="D18">
-        <v>1.015124013728178</v>
+        <v>1.068212296792879</v>
       </c>
       <c r="E18">
-        <v>1.009088126898588</v>
+        <v>1.071677953005001</v>
       </c>
       <c r="F18">
-        <v>1.017801412966543</v>
+        <v>1.081052352803943</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041041473712355</v>
+        <v>1.044319568683802</v>
       </c>
       <c r="J18">
-        <v>1.020275660378875</v>
+        <v>1.073272537993952</v>
       </c>
       <c r="K18">
-        <v>1.028686695536049</v>
+        <v>1.071429116456993</v>
       </c>
       <c r="L18">
-        <v>1.022751809939878</v>
+        <v>1.074883668546218</v>
       </c>
       <c r="M18">
-        <v>1.031319786137412</v>
+        <v>1.084228422342516</v>
       </c>
       <c r="N18">
-        <v>1.021724568843866</v>
+        <v>1.074796708103984</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9937133333180835</v>
+        <v>1.067503176249566</v>
       </c>
       <c r="D19">
-        <v>1.015726686347879</v>
+        <v>1.068317096494784</v>
       </c>
       <c r="E19">
-        <v>1.009744313192991</v>
+        <v>1.071794916829174</v>
       </c>
       <c r="F19">
-        <v>1.018476109937174</v>
+        <v>1.081172843790049</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041266725419982</v>
+        <v>1.044350366350737</v>
       </c>
       <c r="J19">
-        <v>1.020879935549285</v>
+        <v>1.073378438730156</v>
       </c>
       <c r="K19">
-        <v>1.029216250046976</v>
+        <v>1.071519763131218</v>
       </c>
       <c r="L19">
-        <v>1.023333287710534</v>
+        <v>1.074986493543762</v>
       </c>
       <c r="M19">
-        <v>1.031920489257063</v>
+        <v>1.084334905174438</v>
       </c>
       <c r="N19">
-        <v>1.02232970215433</v>
+        <v>1.07490275923138</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9902483215264566</v>
+        <v>1.066909649106367</v>
       </c>
       <c r="D20">
-        <v>1.013015023512073</v>
+        <v>1.067848239452039</v>
       </c>
       <c r="E20">
-        <v>1.006792092554788</v>
+        <v>1.071271684891757</v>
       </c>
       <c r="F20">
-        <v>1.01544068916902</v>
+        <v>1.080633838655089</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040252088485853</v>
+        <v>1.044212450326483</v>
       </c>
       <c r="J20">
-        <v>1.018160399496895</v>
+        <v>1.07290462954656</v>
       </c>
       <c r="K20">
-        <v>1.026832815918696</v>
+        <v>1.071114159960786</v>
       </c>
       <c r="L20">
-        <v>1.020716553428685</v>
+        <v>1.074526454643452</v>
       </c>
       <c r="M20">
-        <v>1.029217359695099</v>
+        <v>1.0838585091307</v>
       </c>
       <c r="N20">
-        <v>1.019606304048811</v>
+        <v>1.074428277184398</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9785796490627168</v>
+        <v>1.064976949877381</v>
       </c>
       <c r="D21">
-        <v>1.003894585010338</v>
+        <v>1.066320948077607</v>
       </c>
       <c r="E21">
-        <v>0.9968662697521824</v>
+        <v>1.069568065681215</v>
       </c>
       <c r="F21">
-        <v>1.005236660169263</v>
+        <v>1.078878957828961</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036819119087238</v>
+        <v>1.043760868702801</v>
       </c>
       <c r="J21">
-        <v>1.00900107207978</v>
+        <v>1.071360741784421</v>
       </c>
       <c r="K21">
-        <v>1.018802547039295</v>
+        <v>1.069791781790275</v>
       </c>
       <c r="L21">
-        <v>1.011907255824553</v>
+        <v>1.073027598516831</v>
       </c>
       <c r="M21">
-        <v>1.02011949697194</v>
+        <v>1.082306500955577</v>
       </c>
       <c r="N21">
-        <v>1.010433969336174</v>
+        <v>1.072882196924549</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9709017674409272</v>
+        <v>1.063759351263831</v>
       </c>
       <c r="D22">
-        <v>0.9979038182375921</v>
+        <v>1.065358336870543</v>
       </c>
       <c r="E22">
-        <v>0.9903490116960266</v>
+        <v>1.068494929271717</v>
       </c>
       <c r="F22">
-        <v>0.9985380249373798</v>
+        <v>1.077773604532852</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034548590425213</v>
+        <v>1.043474467857289</v>
       </c>
       <c r="J22">
-        <v>1.002974452807758</v>
+        <v>1.07038731038635</v>
       </c>
       <c r="K22">
-        <v>1.013516915585452</v>
+        <v>1.068957450260523</v>
       </c>
       <c r="L22">
-        <v>1.006114111991292</v>
+        <v>1.072082684779306</v>
       </c>
       <c r="M22">
-        <v>1.014138499580417</v>
+        <v>1.081328188013989</v>
       </c>
       <c r="N22">
-        <v>1.004398791573523</v>
+        <v>1.07190738314224</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9750065528638291</v>
+        <v>1.064405058525692</v>
       </c>
       <c r="D23">
-        <v>1.001105544440701</v>
+        <v>1.06586886052898</v>
       </c>
       <c r="E23">
-        <v>0.993831905393003</v>
+        <v>1.069064012675969</v>
       </c>
       <c r="F23">
-        <v>1.002117720147893</v>
+        <v>1.078359765514451</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035763505233661</v>
+        <v>1.043626530012234</v>
       </c>
       <c r="J23">
-        <v>1.00619635185517</v>
+        <v>1.07090360687511</v>
       </c>
       <c r="K23">
-        <v>1.016342827535672</v>
+        <v>1.06940002306568</v>
       </c>
       <c r="L23">
-        <v>1.009210881385435</v>
+        <v>1.072583843951574</v>
       </c>
       <c r="M23">
-        <v>1.017335499222265</v>
+        <v>1.081847050930338</v>
       </c>
       <c r="N23">
-        <v>1.007625266087139</v>
+        <v>1.072424412831233</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9904386295205332</v>
+        <v>1.066942010805954</v>
       </c>
       <c r="D24">
-        <v>1.013163917742463</v>
+        <v>1.067873805697268</v>
       </c>
       <c r="E24">
-        <v>1.006954181056903</v>
+        <v>1.071300213131534</v>
       </c>
       <c r="F24">
-        <v>1.015607340310707</v>
+        <v>1.080663226541775</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040307876330923</v>
+        <v>1.044219979483893</v>
       </c>
       <c r="J24">
-        <v>1.018309770186999</v>
+        <v>1.07293046756885</v>
       </c>
       <c r="K24">
-        <v>1.026963737779605</v>
+        <v>1.071136281314829</v>
       </c>
       <c r="L24">
-        <v>1.020860264248618</v>
+        <v>1.074551541130275</v>
       </c>
       <c r="M24">
-        <v>1.029365807231234</v>
+        <v>1.083884487062452</v>
       </c>
       <c r="N24">
-        <v>1.019755886862428</v>
+        <v>1.074454151899643</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007057329170479</v>
+        <v>1.069875852672926</v>
       </c>
       <c r="D25">
-        <v>1.026182005795136</v>
+        <v>1.070190552011498</v>
       </c>
       <c r="E25">
-        <v>1.02113311580887</v>
+        <v>1.073886833690149</v>
       </c>
       <c r="F25">
-        <v>1.030187807631478</v>
+        <v>1.08332796317607</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04514974757721</v>
+        <v>1.044897991744726</v>
       </c>
       <c r="J25">
-        <v>1.031349498093253</v>
+        <v>1.075270998762431</v>
       </c>
       <c r="K25">
-        <v>1.038387034483219</v>
+        <v>1.073138784144552</v>
       </c>
       <c r="L25">
-        <v>1.033411991842851</v>
+        <v>1.076824288570984</v>
       </c>
       <c r="M25">
-        <v>1.042334898013053</v>
+        <v>1.086238253158412</v>
       </c>
       <c r="N25">
-        <v>1.032814132677986</v>
+        <v>1.076798006915981</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_130/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_130/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.072208172810626</v>
+        <v>1.019449897121515</v>
       </c>
       <c r="D2">
-        <v>1.072030756521074</v>
+        <v>1.035906857333639</v>
       </c>
       <c r="E2">
-        <v>1.075943553138918</v>
+        <v>1.031736789816513</v>
       </c>
       <c r="F2">
-        <v>1.085447045681993</v>
+        <v>1.041094870244933</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045430307543311</v>
+        <v>1.048714618201259</v>
       </c>
       <c r="J2">
-        <v>1.077128879515603</v>
+        <v>1.041064029889567</v>
       </c>
       <c r="K2">
-        <v>1.074726353444159</v>
+        <v>1.046887630120374</v>
       </c>
       <c r="L2">
-        <v>1.078628789076833</v>
+        <v>1.042771001907599</v>
       </c>
       <c r="M2">
-        <v>1.088107452401265</v>
+        <v>1.052009904413551</v>
       </c>
       <c r="N2">
-        <v>1.078658526072924</v>
+        <v>1.042542460223723</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.073897414423404</v>
+        <v>1.028019158946818</v>
       </c>
       <c r="D3">
-        <v>1.073362654876628</v>
+        <v>1.042637881327152</v>
       </c>
       <c r="E3">
-        <v>1.077433414607287</v>
+        <v>1.039083594036765</v>
       </c>
       <c r="F3">
-        <v>1.086982225004268</v>
+        <v>1.048653442444442</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045811968428813</v>
+        <v>1.051151448528755</v>
       </c>
       <c r="J3">
-        <v>1.078472878139405</v>
+        <v>1.047774081254366</v>
       </c>
       <c r="K3">
-        <v>1.075873647800539</v>
+        <v>1.052752789606422</v>
       </c>
       <c r="L3">
-        <v>1.079934415942693</v>
+        <v>1.049239671559258</v>
       </c>
       <c r="M3">
-        <v>1.089460104564123</v>
+        <v>1.058699456918871</v>
       </c>
       <c r="N3">
-        <v>1.080004433328931</v>
+        <v>1.049262040631114</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.07498858742434</v>
+        <v>1.033385535339324</v>
       </c>
       <c r="D4">
-        <v>1.07422256934854</v>
+        <v>1.046855070950873</v>
       </c>
       <c r="E4">
-        <v>1.078395897602642</v>
+        <v>1.043690290195126</v>
       </c>
       <c r="F4">
-        <v>1.087974049717594</v>
+        <v>1.053393583761386</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046056705516309</v>
+        <v>1.052663892693045</v>
       </c>
       <c r="J4">
-        <v>1.079340287944792</v>
+        <v>1.051972144365857</v>
       </c>
       <c r="K4">
-        <v>1.076613566823521</v>
+        <v>1.05641906520314</v>
       </c>
       <c r="L4">
-        <v>1.080777172615589</v>
+        <v>1.053288527032015</v>
       </c>
       <c r="M4">
-        <v>1.09033331298549</v>
+        <v>1.062887629714768</v>
       </c>
       <c r="N4">
-        <v>1.080873074955736</v>
+        <v>1.053466065473748</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.075446877589647</v>
+        <v>1.035601472482303</v>
       </c>
       <c r="D5">
-        <v>1.074583627166517</v>
+        <v>1.048596816026979</v>
       </c>
       <c r="E5">
-        <v>1.078800161393003</v>
+        <v>1.045593826288323</v>
       </c>
       <c r="F5">
-        <v>1.088390653222823</v>
+        <v>1.055352410614385</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04615906358958</v>
+        <v>1.053285090471594</v>
       </c>
       <c r="J5">
-        <v>1.079704417546836</v>
+        <v>1.053704607389092</v>
       </c>
       <c r="K5">
-        <v>1.07692404775108</v>
+        <v>1.057931271106584</v>
       </c>
       <c r="L5">
-        <v>1.081130979719386</v>
+        <v>1.054959832759728</v>
       </c>
       <c r="M5">
-        <v>1.090699927685366</v>
+        <v>1.064616687730444</v>
       </c>
       <c r="N5">
-        <v>1.081237721663581</v>
+        <v>1.055200988793192</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.075523801100411</v>
+        <v>1.035971259730359</v>
       </c>
       <c r="D6">
-        <v>1.074644224184347</v>
+        <v>1.048887488262116</v>
       </c>
       <c r="E6">
-        <v>1.078868017964874</v>
+        <v>1.045911554178051</v>
       </c>
       <c r="F6">
-        <v>1.088460581952467</v>
+        <v>1.055679375915842</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046176218997199</v>
+        <v>1.053388555295794</v>
       </c>
       <c r="J6">
-        <v>1.07976552570611</v>
+        <v>1.053993650736988</v>
       </c>
       <c r="K6">
-        <v>1.076976145001797</v>
+        <v>1.058183518987349</v>
       </c>
       <c r="L6">
-        <v>1.081190357116916</v>
+        <v>1.055238696790588</v>
       </c>
       <c r="M6">
-        <v>1.090761455871181</v>
+        <v>1.064905202030756</v>
       </c>
       <c r="N6">
-        <v>1.08129891660345</v>
+        <v>1.055490442615796</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.074994712829632</v>
+        <v>1.033415298999701</v>
       </c>
       <c r="D7">
-        <v>1.07422739557909</v>
+        <v>1.046878464253873</v>
       </c>
       <c r="E7">
-        <v>1.078401300813604</v>
+        <v>1.043715852819475</v>
       </c>
       <c r="F7">
-        <v>1.087979617794718</v>
+        <v>1.053419888304037</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046058075306129</v>
+        <v>1.052672249701191</v>
       </c>
       <c r="J7">
-        <v>1.079345155531027</v>
+        <v>1.051995418408996</v>
       </c>
       <c r="K7">
-        <v>1.076617717757854</v>
+        <v>1.05643938349852</v>
       </c>
       <c r="L7">
-        <v>1.08078190210894</v>
+        <v>1.05331097784832</v>
       </c>
       <c r="M7">
-        <v>1.090338213592071</v>
+        <v>1.062910855369618</v>
       </c>
       <c r="N7">
-        <v>1.080877949454501</v>
+        <v>1.053489372568697</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.072779455644645</v>
+        <v>1.022384556590119</v>
       </c>
       <c r="D8">
-        <v>1.072481278525498</v>
+        <v>1.038211481719321</v>
       </c>
       <c r="E8">
-        <v>1.076447386431177</v>
+        <v>1.034251488413804</v>
       </c>
       <c r="F8">
-        <v>1.085966190704515</v>
+        <v>1.04368190903065</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04555975361005</v>
+        <v>1.049551967770997</v>
       </c>
       <c r="J8">
-        <v>1.077583560567763</v>
+        <v>1.043362773585998</v>
       </c>
       <c r="K8">
-        <v>1.075114600069533</v>
+        <v>1.048897583317521</v>
       </c>
       <c r="L8">
-        <v>1.079070465510181</v>
+        <v>1.044986659013224</v>
       </c>
       <c r="M8">
-        <v>1.088565016514029</v>
+        <v>1.05430098683735</v>
       </c>
       <c r="N8">
-        <v>1.079113852824332</v>
+        <v>1.044844468399873</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.068861004459297</v>
+        <v>1.001445826214857</v>
       </c>
       <c r="D9">
-        <v>1.069389400120192</v>
+        <v>1.02178298716017</v>
       </c>
       <c r="E9">
-        <v>1.072992023924897</v>
+        <v>1.016340083820603</v>
       </c>
       <c r="F9">
-        <v>1.082406091072583</v>
+        <v>1.02525851024129</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044664495167863</v>
+        <v>1.043521879617892</v>
       </c>
       <c r="J9">
-        <v>1.074461812029879</v>
+        <v>1.026947631735943</v>
       </c>
       <c r="K9">
-        <v>1.072446770963086</v>
+        <v>1.034532267069318</v>
       </c>
       <c r="L9">
-        <v>1.076038470150415</v>
+        <v>1.029173502886702</v>
       </c>
       <c r="M9">
-        <v>1.085424363913544</v>
+        <v>1.03795465958433</v>
       </c>
       <c r="N9">
-        <v>1.075987671045454</v>
+        <v>1.028406015165547</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.066238005587018</v>
+        <v>0.9862618071295856</v>
       </c>
       <c r="D10">
-        <v>1.06731757653338</v>
+        <v>1.009897075646164</v>
       </c>
       <c r="E10">
-        <v>1.07067961924238</v>
+        <v>1.003398210720603</v>
       </c>
       <c r="F10">
-        <v>1.080023941424892</v>
+        <v>1.011951416503545</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04405594622136</v>
+        <v>1.039081901243287</v>
       </c>
       <c r="J10">
-        <v>1.072368280377774</v>
+        <v>1.015031300708235</v>
       </c>
       <c r="K10">
-        <v>1.0706548901889</v>
+        <v>1.024089905390799</v>
       </c>
       <c r="L10">
-        <v>1.074005721658344</v>
+        <v>1.017706379297027</v>
       </c>
       <c r="M10">
-        <v>1.083319285692774</v>
+        <v>1.026108185983361</v>
       </c>
       <c r="N10">
-        <v>1.073891166338272</v>
+        <v>1.016472761580959</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.065099526407485</v>
+        <v>0.9793380733483665</v>
       </c>
       <c r="D11">
-        <v>1.066417837230679</v>
+        <v>1.004486821878538</v>
       </c>
       <c r="E11">
-        <v>1.069676105221957</v>
+        <v>0.9975106517852617</v>
       </c>
       <c r="F11">
-        <v>1.078990243979441</v>
+        <v>1.005899031482829</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043789620291422</v>
+        <v>1.037042937580748</v>
       </c>
       <c r="J11">
-        <v>1.071458704713226</v>
+        <v>1.009596411027725</v>
       </c>
       <c r="K11">
-        <v>1.069875722366402</v>
+        <v>1.019324616469304</v>
       </c>
       <c r="L11">
-        <v>1.073122696825941</v>
+        <v>1.012479666755072</v>
       </c>
       <c r="M11">
-        <v>1.08240496526894</v>
+        <v>1.020710551604499</v>
       </c>
       <c r="N11">
-        <v>1.072980298971951</v>
+        <v>1.011030153733712</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.064676225033307</v>
+        <v>0.9767079312405337</v>
       </c>
       <c r="D12">
-        <v>1.06608322994097</v>
+        <v>1.002433353104153</v>
       </c>
       <c r="E12">
-        <v>1.069303010092781</v>
+        <v>0.9952764589256607</v>
       </c>
       <c r="F12">
-        <v>1.078605939700836</v>
+        <v>1.003602509346679</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043690267758681</v>
+        <v>1.036266384030943</v>
       </c>
       <c r="J12">
-        <v>1.071120377231516</v>
+        <v>1.007531845458488</v>
       </c>
       <c r="K12">
-        <v>1.069585804301572</v>
+        <v>1.017514081926015</v>
       </c>
       <c r="L12">
-        <v>1.072794266801465</v>
+        <v>1.010494717514509</v>
       </c>
       <c r="M12">
-        <v>1.082064914069168</v>
+        <v>1.018661014892718</v>
       </c>
       <c r="N12">
-        <v>1.072641491026409</v>
+        <v>1.008962656244557</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.064767043814888</v>
+        <v>0.9772748521970942</v>
       </c>
       <c r="D13">
-        <v>1.066155022778515</v>
+        <v>1.002875889574553</v>
       </c>
       <c r="E13">
-        <v>1.06938305606439</v>
+        <v>0.9957579240581537</v>
       </c>
       <c r="F13">
-        <v>1.078688389970978</v>
+        <v>1.004097396138815</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043711598603864</v>
+        <v>1.036433856070244</v>
       </c>
       <c r="J13">
-        <v>1.071192971088475</v>
+        <v>1.00797685432859</v>
       </c>
       <c r="K13">
-        <v>1.069648015500832</v>
+        <v>1.017904349219138</v>
       </c>
       <c r="L13">
-        <v>1.072864736014272</v>
+        <v>1.01092254054516</v>
       </c>
       <c r="M13">
-        <v>1.082137875912119</v>
+        <v>1.019102743651288</v>
       </c>
       <c r="N13">
-        <v>1.072714187974972</v>
+        <v>1.009408297078298</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.065064544819603</v>
+        <v>0.9791218931872809</v>
       </c>
       <c r="D14">
-        <v>1.066390186785672</v>
+        <v>1.00431800324481</v>
       </c>
       <c r="E14">
-        <v>1.069645272169161</v>
+        <v>0.9973269671018535</v>
       </c>
       <c r="F14">
-        <v>1.078958484328586</v>
+        <v>1.005710217833719</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043781416515792</v>
+        <v>1.036979149703224</v>
       </c>
       <c r="J14">
-        <v>1.071430748118574</v>
+        <v>1.009426716266127</v>
       </c>
       <c r="K14">
-        <v>1.069851767909506</v>
+        <v>1.019175807821034</v>
       </c>
       <c r="L14">
-        <v>1.073095557635009</v>
+        <v>1.012316504876643</v>
       </c>
       <c r="M14">
-        <v>1.082376865399553</v>
+        <v>1.020542073956695</v>
       </c>
       <c r="N14">
-        <v>1.072952302675727</v>
+        <v>1.010860217986087</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.065247789015466</v>
+        <v>0.9802519893929508</v>
       </c>
       <c r="D15">
-        <v>1.06653502526466</v>
+        <v>1.005200586524736</v>
       </c>
       <c r="E15">
-        <v>1.069806786083399</v>
+        <v>0.9982872874000764</v>
       </c>
       <c r="F15">
-        <v>1.079124852596335</v>
+        <v>1.006697361825766</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043824376918416</v>
+        <v>1.037312524679498</v>
       </c>
       <c r="J15">
-        <v>1.071577187723506</v>
+        <v>1.010313808268197</v>
       </c>
       <c r="K15">
-        <v>1.069977239911331</v>
+        <v>1.019953703062986</v>
       </c>
       <c r="L15">
-        <v>1.073237716476047</v>
+        <v>1.013169467729001</v>
       </c>
       <c r="M15">
-        <v>1.082524057178846</v>
+        <v>1.021422839394218</v>
       </c>
       <c r="N15">
-        <v>1.073098950241694</v>
+        <v>1.011748569760551</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.066313504605817</v>
+        <v>0.9867134750382772</v>
       </c>
       <c r="D16">
-        <v>1.0673772331298</v>
+        <v>1.010250234177444</v>
       </c>
       <c r="E16">
-        <v>1.070746171322119</v>
+        <v>1.003782589558284</v>
       </c>
       <c r="F16">
-        <v>1.080092497014</v>
+        <v>1.01234658516474</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044073561677926</v>
+        <v>1.039214628342816</v>
       </c>
       <c r="J16">
-        <v>1.072428580502587</v>
+        <v>1.015385834534451</v>
       </c>
       <c r="K16">
-        <v>1.070706531302491</v>
+        <v>1.024400709810591</v>
       </c>
       <c r="L16">
-        <v>1.074064264611757</v>
+        <v>1.018047404376518</v>
       </c>
       <c r="M16">
-        <v>1.08337990611691</v>
+        <v>1.026460406129369</v>
       </c>
       <c r="N16">
-        <v>1.073951552096178</v>
+        <v>1.016827798885873</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.066981266674723</v>
+        <v>0.9906692639545678</v>
       </c>
       <c r="D17">
-        <v>1.067904818119008</v>
+        <v>1.013344368764248</v>
       </c>
       <c r="E17">
-        <v>1.071334818982005</v>
+        <v>1.007150624955878</v>
       </c>
       <c r="F17">
-        <v>1.08069887523212</v>
+        <v>1.015809314759293</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044229111168384</v>
+        <v>1.040375476319929</v>
       </c>
       <c r="J17">
-        <v>1.072961809393014</v>
+        <v>1.018490791785653</v>
       </c>
       <c r="K17">
-        <v>1.071163114348186</v>
+        <v>1.027122399580762</v>
       </c>
       <c r="L17">
-        <v>1.074581971426811</v>
+        <v>1.021034428774484</v>
       </c>
       <c r="M17">
-        <v>1.08391599877735</v>
+        <v>1.029545713490186</v>
       </c>
       <c r="N17">
-        <v>1.074485538232792</v>
+        <v>1.019937165532515</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.067370501066232</v>
+        <v>0.9929433861547305</v>
       </c>
       <c r="D18">
-        <v>1.068212296792879</v>
+        <v>1.015124013728176</v>
       </c>
       <c r="E18">
-        <v>1.071677953005001</v>
+        <v>1.009088126898585</v>
       </c>
       <c r="F18">
-        <v>1.081052352803943</v>
+        <v>1.017801412966541</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044319568683802</v>
+        <v>1.041041473712354</v>
       </c>
       <c r="J18">
-        <v>1.073272537993952</v>
+        <v>1.020275660378872</v>
       </c>
       <c r="K18">
-        <v>1.071429116456993</v>
+        <v>1.028686695536047</v>
       </c>
       <c r="L18">
-        <v>1.074883668546218</v>
+        <v>1.022751809939875</v>
       </c>
       <c r="M18">
-        <v>1.084228422342516</v>
+        <v>1.03131978613741</v>
       </c>
       <c r="N18">
-        <v>1.074796708103984</v>
+        <v>1.021724568843864</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.067503176249566</v>
+        <v>0.9937133333180836</v>
       </c>
       <c r="D19">
-        <v>1.068317096494784</v>
+        <v>1.015726686347879</v>
       </c>
       <c r="E19">
-        <v>1.071794916829174</v>
+        <v>1.009744313192991</v>
       </c>
       <c r="F19">
-        <v>1.081172843790049</v>
+        <v>1.018476109937174</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044350366350737</v>
+        <v>1.041266725419982</v>
       </c>
       <c r="J19">
-        <v>1.073378438730156</v>
+        <v>1.020879935549284</v>
       </c>
       <c r="K19">
-        <v>1.071519763131218</v>
+        <v>1.029216250046975</v>
       </c>
       <c r="L19">
-        <v>1.074986493543762</v>
+        <v>1.023333287710533</v>
       </c>
       <c r="M19">
-        <v>1.084334905174438</v>
+        <v>1.031920489257063</v>
       </c>
       <c r="N19">
-        <v>1.07490275923138</v>
+        <v>1.02232970215433</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.066909649106367</v>
+        <v>0.9902483215264556</v>
       </c>
       <c r="D20">
-        <v>1.067848239452039</v>
+        <v>1.013015023512071</v>
       </c>
       <c r="E20">
-        <v>1.071271684891757</v>
+        <v>1.006792092554786</v>
       </c>
       <c r="F20">
-        <v>1.080633838655089</v>
+        <v>1.015440689169018</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044212450326483</v>
+        <v>1.040252088485852</v>
       </c>
       <c r="J20">
-        <v>1.07290462954656</v>
+        <v>1.018160399496894</v>
       </c>
       <c r="K20">
-        <v>1.071114159960786</v>
+        <v>1.026832815918695</v>
       </c>
       <c r="L20">
-        <v>1.074526454643452</v>
+        <v>1.020716553428683</v>
       </c>
       <c r="M20">
-        <v>1.0838585091307</v>
+        <v>1.029217359695098</v>
       </c>
       <c r="N20">
-        <v>1.074428277184398</v>
+        <v>1.01960630404881</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.064976949877381</v>
+        <v>0.9785796490627157</v>
       </c>
       <c r="D21">
-        <v>1.066320948077607</v>
+        <v>1.003894585010337</v>
       </c>
       <c r="E21">
-        <v>1.069568065681215</v>
+        <v>0.9968662697521816</v>
       </c>
       <c r="F21">
-        <v>1.078878957828961</v>
+        <v>1.005236660169262</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043760868702801</v>
+        <v>1.036819119087237</v>
       </c>
       <c r="J21">
-        <v>1.071360741784421</v>
+        <v>1.009001072079779</v>
       </c>
       <c r="K21">
-        <v>1.069791781790275</v>
+        <v>1.018802547039295</v>
       </c>
       <c r="L21">
-        <v>1.073027598516831</v>
+        <v>1.011907255824552</v>
       </c>
       <c r="M21">
-        <v>1.082306500955577</v>
+        <v>1.020119496971939</v>
       </c>
       <c r="N21">
-        <v>1.072882196924549</v>
+        <v>1.010433969336173</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.063759351263831</v>
+        <v>0.9709017674409284</v>
       </c>
       <c r="D22">
-        <v>1.065358336870543</v>
+        <v>0.997903818237593</v>
       </c>
       <c r="E22">
-        <v>1.068494929271717</v>
+        <v>0.9903490116960276</v>
       </c>
       <c r="F22">
-        <v>1.077773604532852</v>
+        <v>0.9985380249373806</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043474467857289</v>
+        <v>1.034548590425213</v>
       </c>
       <c r="J22">
-        <v>1.07038731038635</v>
+        <v>1.002974452807759</v>
       </c>
       <c r="K22">
-        <v>1.068957450260523</v>
+        <v>1.013516915585452</v>
       </c>
       <c r="L22">
-        <v>1.072082684779306</v>
+        <v>1.006114111991293</v>
       </c>
       <c r="M22">
-        <v>1.081328188013989</v>
+        <v>1.014138499580417</v>
       </c>
       <c r="N22">
-        <v>1.07190738314224</v>
+        <v>1.004398791573524</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.064405058525692</v>
+        <v>0.9750065528638296</v>
       </c>
       <c r="D23">
-        <v>1.06586886052898</v>
+        <v>1.001105544440702</v>
       </c>
       <c r="E23">
-        <v>1.069064012675969</v>
+        <v>0.9938319053930031</v>
       </c>
       <c r="F23">
-        <v>1.078359765514451</v>
+        <v>1.002117720147893</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043626530012234</v>
+        <v>1.035763505233662</v>
       </c>
       <c r="J23">
-        <v>1.07090360687511</v>
+        <v>1.006196351855171</v>
       </c>
       <c r="K23">
-        <v>1.06940002306568</v>
+        <v>1.016342827535672</v>
       </c>
       <c r="L23">
-        <v>1.072583843951574</v>
+        <v>1.009210881385435</v>
       </c>
       <c r="M23">
-        <v>1.081847050930338</v>
+        <v>1.017335499222265</v>
       </c>
       <c r="N23">
-        <v>1.072424412831233</v>
+        <v>1.00762526608714</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.066942010805954</v>
+        <v>0.9904386295205335</v>
       </c>
       <c r="D24">
-        <v>1.067873805697268</v>
+        <v>1.013163917742464</v>
       </c>
       <c r="E24">
-        <v>1.071300213131534</v>
+        <v>1.006954181056904</v>
       </c>
       <c r="F24">
-        <v>1.080663226541775</v>
+        <v>1.015607340310707</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044219979483893</v>
+        <v>1.040307876330923</v>
       </c>
       <c r="J24">
-        <v>1.07293046756885</v>
+        <v>1.018309770187</v>
       </c>
       <c r="K24">
-        <v>1.071136281314829</v>
+        <v>1.026963737779605</v>
       </c>
       <c r="L24">
-        <v>1.074551541130275</v>
+        <v>1.020860264248618</v>
       </c>
       <c r="M24">
-        <v>1.083884487062452</v>
+        <v>1.029365807231235</v>
       </c>
       <c r="N24">
-        <v>1.074454151899643</v>
+        <v>1.019755886862428</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.069875852672926</v>
+        <v>1.007057329170478</v>
       </c>
       <c r="D25">
-        <v>1.070190552011498</v>
+        <v>1.026182005795135</v>
       </c>
       <c r="E25">
-        <v>1.073886833690149</v>
+        <v>1.021133115808869</v>
       </c>
       <c r="F25">
-        <v>1.08332796317607</v>
+        <v>1.030187807631477</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044897991744726</v>
+        <v>1.045149747577209</v>
       </c>
       <c r="J25">
-        <v>1.075270998762431</v>
+        <v>1.031349498093252</v>
       </c>
       <c r="K25">
-        <v>1.073138784144552</v>
+        <v>1.038387034483218</v>
       </c>
       <c r="L25">
-        <v>1.076824288570984</v>
+        <v>1.03341199184285</v>
       </c>
       <c r="M25">
-        <v>1.086238253158412</v>
+        <v>1.042334898013052</v>
       </c>
       <c r="N25">
-        <v>1.076798006915981</v>
+        <v>1.032814132677985</v>
       </c>
     </row>
   </sheetData>
